--- a/meta/program/BlancoRestAutotestInputResultFieldStructure.xlsx
+++ b/meta/program/BlancoRestAutotestInputResultFieldStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestAutotest/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21762C5-DA67-0F4F-9CA2-3139812870EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B5C3C-C0DF-3942-BB47-213B48747983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16880" yWindow="660" windowWidth="21520" windowHeight="20940" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="443">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -431,6 +431,1026 @@
   <si>
     <t>blanco.restautotest.valueobject</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input31</t>
+  </si>
+  <si>
+    <t>input32</t>
+  </si>
+  <si>
+    <t>input33</t>
+  </si>
+  <si>
+    <t>input34</t>
+  </si>
+  <si>
+    <t>input35</t>
+  </si>
+  <si>
+    <t>input36</t>
+  </si>
+  <si>
+    <t>input37</t>
+  </si>
+  <si>
+    <t>input38</t>
+  </si>
+  <si>
+    <t>input39</t>
+  </si>
+  <si>
+    <t>input40</t>
+  </si>
+  <si>
+    <t>input41</t>
+  </si>
+  <si>
+    <t>input42</t>
+  </si>
+  <si>
+    <t>input43</t>
+  </si>
+  <si>
+    <t>input44</t>
+  </si>
+  <si>
+    <t>input45</t>
+  </si>
+  <si>
+    <t>input46</t>
+  </si>
+  <si>
+    <t>input47</t>
+  </si>
+  <si>
+    <t>input48</t>
+  </si>
+  <si>
+    <t>input49</t>
+  </si>
+  <si>
+    <t>input50</t>
+  </si>
+  <si>
+    <t>input51</t>
+  </si>
+  <si>
+    <t>input52</t>
+  </si>
+  <si>
+    <t>input53</t>
+  </si>
+  <si>
+    <t>input54</t>
+  </si>
+  <si>
+    <t>input55</t>
+  </si>
+  <si>
+    <t>input56</t>
+  </si>
+  <si>
+    <t>input57</t>
+  </si>
+  <si>
+    <t>input58</t>
+  </si>
+  <si>
+    <t>input59</t>
+  </si>
+  <si>
+    <t>input60</t>
+  </si>
+  <si>
+    <t>input61</t>
+  </si>
+  <si>
+    <t>input62</t>
+  </si>
+  <si>
+    <t>input63</t>
+  </si>
+  <si>
+    <t>input64</t>
+  </si>
+  <si>
+    <t>input65</t>
+  </si>
+  <si>
+    <t>input66</t>
+  </si>
+  <si>
+    <t>input67</t>
+  </si>
+  <si>
+    <t>input68</t>
+  </si>
+  <si>
+    <t>input69</t>
+  </si>
+  <si>
+    <t>input70</t>
+  </si>
+  <si>
+    <t>input71</t>
+  </si>
+  <si>
+    <t>input72</t>
+  </si>
+  <si>
+    <t>input73</t>
+  </si>
+  <si>
+    <t>input74</t>
+  </si>
+  <si>
+    <t>input75</t>
+  </si>
+  <si>
+    <t>input76</t>
+  </si>
+  <si>
+    <t>input77</t>
+  </si>
+  <si>
+    <t>input78</t>
+  </si>
+  <si>
+    <t>input79</t>
+  </si>
+  <si>
+    <t>input80</t>
+  </si>
+  <si>
+    <t>input81</t>
+  </si>
+  <si>
+    <t>input82</t>
+  </si>
+  <si>
+    <t>input83</t>
+  </si>
+  <si>
+    <t>input84</t>
+  </si>
+  <si>
+    <t>input85</t>
+  </si>
+  <si>
+    <t>input86</t>
+  </si>
+  <si>
+    <t>input87</t>
+  </si>
+  <si>
+    <t>input88</t>
+  </si>
+  <si>
+    <t>input89</t>
+  </si>
+  <si>
+    <t>input90</t>
+  </si>
+  <si>
+    <t>input91</t>
+  </si>
+  <si>
+    <t>input92</t>
+  </si>
+  <si>
+    <t>input93</t>
+  </si>
+  <si>
+    <t>input94</t>
+  </si>
+  <si>
+    <t>input95</t>
+  </si>
+  <si>
+    <t>input96</t>
+  </si>
+  <si>
+    <t>input97</t>
+  </si>
+  <si>
+    <t>input98</t>
+  </si>
+  <si>
+    <t>input99</t>
+  </si>
+  <si>
+    <t>input100</t>
+  </si>
+  <si>
+    <t>input101</t>
+  </si>
+  <si>
+    <t>input102</t>
+  </si>
+  <si>
+    <t>input103</t>
+  </si>
+  <si>
+    <t>input104</t>
+  </si>
+  <si>
+    <t>input105</t>
+  </si>
+  <si>
+    <t>input106</t>
+  </si>
+  <si>
+    <t>input107</t>
+  </si>
+  <si>
+    <t>input108</t>
+  </si>
+  <si>
+    <t>input109</t>
+  </si>
+  <si>
+    <t>input110</t>
+  </si>
+  <si>
+    <t>input111</t>
+  </si>
+  <si>
+    <t>input112</t>
+  </si>
+  <si>
+    <t>input113</t>
+  </si>
+  <si>
+    <t>input114</t>
+  </si>
+  <si>
+    <t>input115</t>
+  </si>
+  <si>
+    <t>input116</t>
+  </si>
+  <si>
+    <t>input117</t>
+  </si>
+  <si>
+    <t>input118</t>
+  </si>
+  <si>
+    <t>input119</t>
+  </si>
+  <si>
+    <t>input120</t>
+  </si>
+  <si>
+    <t>input121</t>
+  </si>
+  <si>
+    <t>input122</t>
+  </si>
+  <si>
+    <t>input123</t>
+  </si>
+  <si>
+    <t>input124</t>
+  </si>
+  <si>
+    <t>input125</t>
+  </si>
+  <si>
+    <t>input126</t>
+  </si>
+  <si>
+    <t>input127</t>
+  </si>
+  <si>
+    <t>input128</t>
+  </si>
+  <si>
+    <t>input129</t>
+  </si>
+  <si>
+    <t>input130</t>
+  </si>
+  <si>
+    <t>input131</t>
+  </si>
+  <si>
+    <t>input132</t>
+  </si>
+  <si>
+    <t>input133</t>
+  </si>
+  <si>
+    <t>input134</t>
+  </si>
+  <si>
+    <t>input135</t>
+  </si>
+  <si>
+    <t>input136</t>
+  </si>
+  <si>
+    <t>input137</t>
+  </si>
+  <si>
+    <t>input138</t>
+  </si>
+  <si>
+    <t>input139</t>
+  </si>
+  <si>
+    <t>input140</t>
+  </si>
+  <si>
+    <t>input141</t>
+  </si>
+  <si>
+    <t>input142</t>
+  </si>
+  <si>
+    <t>input143</t>
+  </si>
+  <si>
+    <t>input144</t>
+  </si>
+  <si>
+    <t>input145</t>
+  </si>
+  <si>
+    <t>input146</t>
+  </si>
+  <si>
+    <t>input147</t>
+  </si>
+  <si>
+    <t>input148</t>
+  </si>
+  <si>
+    <t>input149</t>
+  </si>
+  <si>
+    <t>input150</t>
+  </si>
+  <si>
+    <t>input151</t>
+  </si>
+  <si>
+    <t>input152</t>
+  </si>
+  <si>
+    <t>input153</t>
+  </si>
+  <si>
+    <t>input154</t>
+  </si>
+  <si>
+    <t>input155</t>
+  </si>
+  <si>
+    <t>input156</t>
+  </si>
+  <si>
+    <t>input157</t>
+  </si>
+  <si>
+    <t>input158</t>
+  </si>
+  <si>
+    <t>input159</t>
+  </si>
+  <si>
+    <t>input160</t>
+  </si>
+  <si>
+    <t>input161</t>
+  </si>
+  <si>
+    <t>input162</t>
+  </si>
+  <si>
+    <t>input163</t>
+  </si>
+  <si>
+    <t>input164</t>
+  </si>
+  <si>
+    <t>input165</t>
+  </si>
+  <si>
+    <t>input166</t>
+  </si>
+  <si>
+    <t>input167</t>
+  </si>
+  <si>
+    <t>input168</t>
+  </si>
+  <si>
+    <t>input169</t>
+  </si>
+  <si>
+    <t>input170</t>
+  </si>
+  <si>
+    <t>input171</t>
+  </si>
+  <si>
+    <t>input172</t>
+  </si>
+  <si>
+    <t>input173</t>
+  </si>
+  <si>
+    <t>input174</t>
+  </si>
+  <si>
+    <t>input175</t>
+  </si>
+  <si>
+    <t>input176</t>
+  </si>
+  <si>
+    <t>input177</t>
+  </si>
+  <si>
+    <t>input178</t>
+  </si>
+  <si>
+    <t>input179</t>
+  </si>
+  <si>
+    <t>input180</t>
+  </si>
+  <si>
+    <t>input181</t>
+  </si>
+  <si>
+    <t>input182</t>
+  </si>
+  <si>
+    <t>input183</t>
+  </si>
+  <si>
+    <t>input184</t>
+  </si>
+  <si>
+    <t>input185</t>
+  </si>
+  <si>
+    <t>input186</t>
+  </si>
+  <si>
+    <t>input187</t>
+  </si>
+  <si>
+    <t>input188</t>
+  </si>
+  <si>
+    <t>input189</t>
+  </si>
+  <si>
+    <t>input190</t>
+  </si>
+  <si>
+    <t>input191</t>
+  </si>
+  <si>
+    <t>input192</t>
+  </si>
+  <si>
+    <t>input193</t>
+  </si>
+  <si>
+    <t>input194</t>
+  </si>
+  <si>
+    <t>input195</t>
+  </si>
+  <si>
+    <t>input196</t>
+  </si>
+  <si>
+    <t>input197</t>
+  </si>
+  <si>
+    <t>input198</t>
+  </si>
+  <si>
+    <t>input199</t>
+  </si>
+  <si>
+    <t>input200</t>
+  </si>
+  <si>
+    <t>expect31</t>
+  </si>
+  <si>
+    <t>expect32</t>
+  </si>
+  <si>
+    <t>expect33</t>
+  </si>
+  <si>
+    <t>expect34</t>
+  </si>
+  <si>
+    <t>expect35</t>
+  </si>
+  <si>
+    <t>expect36</t>
+  </si>
+  <si>
+    <t>expect37</t>
+  </si>
+  <si>
+    <t>expect38</t>
+  </si>
+  <si>
+    <t>expect39</t>
+  </si>
+  <si>
+    <t>expect40</t>
+  </si>
+  <si>
+    <t>expect41</t>
+  </si>
+  <si>
+    <t>expect42</t>
+  </si>
+  <si>
+    <t>expect43</t>
+  </si>
+  <si>
+    <t>expect44</t>
+  </si>
+  <si>
+    <t>expect45</t>
+  </si>
+  <si>
+    <t>expect46</t>
+  </si>
+  <si>
+    <t>expect47</t>
+  </si>
+  <si>
+    <t>expect48</t>
+  </si>
+  <si>
+    <t>expect49</t>
+  </si>
+  <si>
+    <t>expect50</t>
+  </si>
+  <si>
+    <t>expect51</t>
+  </si>
+  <si>
+    <t>expect52</t>
+  </si>
+  <si>
+    <t>expect53</t>
+  </si>
+  <si>
+    <t>expect54</t>
+  </si>
+  <si>
+    <t>expect55</t>
+  </si>
+  <si>
+    <t>expect56</t>
+  </si>
+  <si>
+    <t>expect57</t>
+  </si>
+  <si>
+    <t>expect58</t>
+  </si>
+  <si>
+    <t>expect59</t>
+  </si>
+  <si>
+    <t>expect60</t>
+  </si>
+  <si>
+    <t>expect61</t>
+  </si>
+  <si>
+    <t>expect62</t>
+  </si>
+  <si>
+    <t>expect63</t>
+  </si>
+  <si>
+    <t>expect64</t>
+  </si>
+  <si>
+    <t>expect65</t>
+  </si>
+  <si>
+    <t>expect66</t>
+  </si>
+  <si>
+    <t>expect67</t>
+  </si>
+  <si>
+    <t>expect68</t>
+  </si>
+  <si>
+    <t>expect69</t>
+  </si>
+  <si>
+    <t>expect70</t>
+  </si>
+  <si>
+    <t>expect71</t>
+  </si>
+  <si>
+    <t>expect72</t>
+  </si>
+  <si>
+    <t>expect73</t>
+  </si>
+  <si>
+    <t>expect74</t>
+  </si>
+  <si>
+    <t>expect75</t>
+  </si>
+  <si>
+    <t>expect76</t>
+  </si>
+  <si>
+    <t>expect77</t>
+  </si>
+  <si>
+    <t>expect78</t>
+  </si>
+  <si>
+    <t>expect79</t>
+  </si>
+  <si>
+    <t>expect80</t>
+  </si>
+  <si>
+    <t>expect81</t>
+  </si>
+  <si>
+    <t>expect82</t>
+  </si>
+  <si>
+    <t>expect83</t>
+  </si>
+  <si>
+    <t>expect84</t>
+  </si>
+  <si>
+    <t>expect85</t>
+  </si>
+  <si>
+    <t>expect86</t>
+  </si>
+  <si>
+    <t>expect87</t>
+  </si>
+  <si>
+    <t>expect88</t>
+  </si>
+  <si>
+    <t>expect89</t>
+  </si>
+  <si>
+    <t>expect90</t>
+  </si>
+  <si>
+    <t>expect91</t>
+  </si>
+  <si>
+    <t>expect92</t>
+  </si>
+  <si>
+    <t>expect93</t>
+  </si>
+  <si>
+    <t>expect94</t>
+  </si>
+  <si>
+    <t>expect95</t>
+  </si>
+  <si>
+    <t>expect96</t>
+  </si>
+  <si>
+    <t>expect97</t>
+  </si>
+  <si>
+    <t>expect98</t>
+  </si>
+  <si>
+    <t>expect99</t>
+  </si>
+  <si>
+    <t>expect100</t>
+  </si>
+  <si>
+    <t>expect101</t>
+  </si>
+  <si>
+    <t>expect102</t>
+  </si>
+  <si>
+    <t>expect103</t>
+  </si>
+  <si>
+    <t>expect104</t>
+  </si>
+  <si>
+    <t>expect105</t>
+  </si>
+  <si>
+    <t>expect106</t>
+  </si>
+  <si>
+    <t>expect107</t>
+  </si>
+  <si>
+    <t>expect108</t>
+  </si>
+  <si>
+    <t>expect109</t>
+  </si>
+  <si>
+    <t>expect110</t>
+  </si>
+  <si>
+    <t>expect111</t>
+  </si>
+  <si>
+    <t>expect112</t>
+  </si>
+  <si>
+    <t>expect113</t>
+  </si>
+  <si>
+    <t>expect114</t>
+  </si>
+  <si>
+    <t>expect115</t>
+  </si>
+  <si>
+    <t>expect116</t>
+  </si>
+  <si>
+    <t>expect117</t>
+  </si>
+  <si>
+    <t>expect118</t>
+  </si>
+  <si>
+    <t>expect119</t>
+  </si>
+  <si>
+    <t>expect120</t>
+  </si>
+  <si>
+    <t>expect121</t>
+  </si>
+  <si>
+    <t>expect122</t>
+  </si>
+  <si>
+    <t>expect123</t>
+  </si>
+  <si>
+    <t>expect124</t>
+  </si>
+  <si>
+    <t>expect125</t>
+  </si>
+  <si>
+    <t>expect126</t>
+  </si>
+  <si>
+    <t>expect127</t>
+  </si>
+  <si>
+    <t>expect128</t>
+  </si>
+  <si>
+    <t>expect129</t>
+  </si>
+  <si>
+    <t>expect130</t>
+  </si>
+  <si>
+    <t>expect131</t>
+  </si>
+  <si>
+    <t>expect132</t>
+  </si>
+  <si>
+    <t>expect133</t>
+  </si>
+  <si>
+    <t>expect134</t>
+  </si>
+  <si>
+    <t>expect135</t>
+  </si>
+  <si>
+    <t>expect136</t>
+  </si>
+  <si>
+    <t>expect137</t>
+  </si>
+  <si>
+    <t>expect138</t>
+  </si>
+  <si>
+    <t>expect139</t>
+  </si>
+  <si>
+    <t>expect140</t>
+  </si>
+  <si>
+    <t>expect141</t>
+  </si>
+  <si>
+    <t>expect142</t>
+  </si>
+  <si>
+    <t>expect143</t>
+  </si>
+  <si>
+    <t>expect144</t>
+  </si>
+  <si>
+    <t>expect145</t>
+  </si>
+  <si>
+    <t>expect146</t>
+  </si>
+  <si>
+    <t>expect147</t>
+  </si>
+  <si>
+    <t>expect148</t>
+  </si>
+  <si>
+    <t>expect149</t>
+  </si>
+  <si>
+    <t>expect150</t>
+  </si>
+  <si>
+    <t>expect151</t>
+  </si>
+  <si>
+    <t>expect152</t>
+  </si>
+  <si>
+    <t>expect153</t>
+  </si>
+  <si>
+    <t>expect154</t>
+  </si>
+  <si>
+    <t>expect155</t>
+  </si>
+  <si>
+    <t>expect156</t>
+  </si>
+  <si>
+    <t>expect157</t>
+  </si>
+  <si>
+    <t>expect158</t>
+  </si>
+  <si>
+    <t>expect159</t>
+  </si>
+  <si>
+    <t>expect160</t>
+  </si>
+  <si>
+    <t>expect161</t>
+  </si>
+  <si>
+    <t>expect162</t>
+  </si>
+  <si>
+    <t>expect163</t>
+  </si>
+  <si>
+    <t>expect164</t>
+  </si>
+  <si>
+    <t>expect165</t>
+  </si>
+  <si>
+    <t>expect166</t>
+  </si>
+  <si>
+    <t>expect167</t>
+  </si>
+  <si>
+    <t>expect168</t>
+  </si>
+  <si>
+    <t>expect169</t>
+  </si>
+  <si>
+    <t>expect170</t>
+  </si>
+  <si>
+    <t>expect171</t>
+  </si>
+  <si>
+    <t>expect172</t>
+  </si>
+  <si>
+    <t>expect173</t>
+  </si>
+  <si>
+    <t>expect174</t>
+  </si>
+  <si>
+    <t>expect175</t>
+  </si>
+  <si>
+    <t>expect176</t>
+  </si>
+  <si>
+    <t>expect177</t>
+  </si>
+  <si>
+    <t>expect178</t>
+  </si>
+  <si>
+    <t>expect179</t>
+  </si>
+  <si>
+    <t>expect180</t>
+  </si>
+  <si>
+    <t>expect181</t>
+  </si>
+  <si>
+    <t>expect182</t>
+  </si>
+  <si>
+    <t>expect183</t>
+  </si>
+  <si>
+    <t>expect184</t>
+  </si>
+  <si>
+    <t>expect185</t>
+  </si>
+  <si>
+    <t>expect186</t>
+  </si>
+  <si>
+    <t>expect187</t>
+  </si>
+  <si>
+    <t>expect188</t>
+  </si>
+  <si>
+    <t>expect189</t>
+  </si>
+  <si>
+    <t>expect190</t>
+  </si>
+  <si>
+    <t>expect191</t>
+  </si>
+  <si>
+    <t>expect192</t>
+  </si>
+  <si>
+    <t>expect193</t>
+  </si>
+  <si>
+    <t>expect194</t>
+  </si>
+  <si>
+    <t>expect195</t>
+  </si>
+  <si>
+    <t>expect196</t>
+  </si>
+  <si>
+    <t>expect197</t>
+  </si>
+  <si>
+    <t>expect198</t>
+  </si>
+  <si>
+    <t>expect199</t>
+  </si>
+  <si>
+    <t>expect200</t>
   </si>
 </sst>
 </file>
@@ -489,7 +1509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -802,8 +1822,94 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -812,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -924,6 +2030,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,10 +2478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1548,24 +2675,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1607,30 +2734,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1662,16 +2789,16 @@
       <c r="C28" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41" t="s">
+      <c r="D28" s="44"/>
+      <c r="E28" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="45"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="39">
-        <f t="shared" ref="A29:A89" si="0">A28+1</f>
+        <f t="shared" ref="A29:A92" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="40" t="s">
@@ -1680,11 +2807,11 @@
       <c r="C29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="45"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7">
@@ -1698,11 +2825,11 @@
       <c r="C30" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="42"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="45"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7">
@@ -1716,11 +2843,11 @@
       <c r="C31" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="42"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="45"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7">
@@ -1734,11 +2861,11 @@
       <c r="C32" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="42"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="45"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7">
@@ -1752,11 +2879,11 @@
       <c r="C33" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="45"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7">
@@ -1770,11 +2897,11 @@
       <c r="C34" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="42"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="45"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7">
@@ -1788,11 +2915,11 @@
       <c r="C35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="42"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="45"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7">
@@ -1806,11 +2933,11 @@
       <c r="C36" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="42"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="45"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7">
@@ -1824,11 +2951,11 @@
       <c r="C37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="42"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="45"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7">
@@ -1842,11 +2969,11 @@
       <c r="C38" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="42"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="45"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7">
@@ -1860,11 +2987,11 @@
       <c r="C39" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="42"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="45"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7">
@@ -1878,11 +3005,11 @@
       <c r="C40" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="42"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="45"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -1896,11 +3023,11 @@
       <c r="C41" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="42"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="45"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7">
@@ -1914,11 +3041,11 @@
       <c r="C42" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="24"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="45"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7">
@@ -1932,11 +3059,11 @@
       <c r="C43" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="24"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="45"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7">
@@ -1950,11 +3077,11 @@
       <c r="C44" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="24"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="45"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7">
@@ -1968,11 +3095,11 @@
       <c r="C45" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="24"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="45"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
@@ -1986,11 +3113,11 @@
       <c r="C46" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="24"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="45"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="39">
@@ -2003,11 +3130,11 @@
       <c r="C47" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="24"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="39">
@@ -2020,11 +3147,11 @@
       <c r="C48" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="24"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="45"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="39">
@@ -2037,11 +3164,11 @@
       <c r="C49" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="24"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="39">
@@ -2054,11 +3181,11 @@
       <c r="C50" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="24"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="39">
@@ -2071,11 +3198,11 @@
       <c r="C51" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="24"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="39">
@@ -2088,11 +3215,11 @@
       <c r="C52" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="24"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="45"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="39">
@@ -2105,11 +3232,11 @@
       <c r="C53" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="24"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="45"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="39">
@@ -2122,11 +3249,11 @@
       <c r="C54" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" s="24"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="39">
@@ -2139,11 +3266,11 @@
       <c r="C55" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="24"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="39">
@@ -2156,11 +3283,11 @@
       <c r="C56" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="24"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="45"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="39">
@@ -2173,11 +3300,11 @@
       <c r="C57" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="24"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="39">
@@ -2190,11 +3317,11 @@
       <c r="C58" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="24"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="39">
@@ -2207,11 +3334,11 @@
       <c r="C59" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="24"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="45"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="39">
@@ -2219,16 +3346,16 @@
         <v>34</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C60" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="24"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="45"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="39">
@@ -2236,16 +3363,16 @@
         <v>35</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C61" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61" s="24"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="45"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="39">
@@ -2253,16 +3380,16 @@
         <v>36</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F62" s="24"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="39">
@@ -2270,16 +3397,16 @@
         <v>37</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63" s="24"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="45"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="39">
@@ -2287,441 +3414,6269 @@
         <v>38</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="24"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="D64" s="44"/>
+      <c r="E64" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="45"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="39">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F65" s="24"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="D65" s="44"/>
+      <c r="E65" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="45"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="39">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" s="24"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="D66" s="44"/>
+      <c r="E66" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" s="45"/>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="39">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="24"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="D67" s="44"/>
+      <c r="E67" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="45"/>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="39">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" s="24"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="D68" s="44"/>
+      <c r="E68" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="45"/>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="39">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="D69" s="44"/>
+      <c r="E69" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="45"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C70" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="24"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="D70" s="44"/>
+      <c r="E70" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="45"/>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="39">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="24"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="D71" s="44"/>
+      <c r="E71" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="39">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="24"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="D72" s="44"/>
+      <c r="E72" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="45"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="39">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="24"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="D73" s="44"/>
+      <c r="E73" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="45"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74" s="24"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="D74" s="44"/>
+      <c r="E74" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="45"/>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="39">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="24"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="D75" s="44"/>
+      <c r="E75" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="45"/>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="39">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F76" s="24"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="D76" s="44"/>
+      <c r="E76" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="45"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="39">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F77" s="24"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="D77" s="44"/>
+      <c r="E77" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" s="45"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="39">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C78" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="24"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="D78" s="44"/>
+      <c r="E78" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="45"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="39">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C79" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F79" s="24"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="D79" s="44"/>
+      <c r="E79" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="45"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="39">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C80" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F80" s="24"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="D80" s="44"/>
+      <c r="E80" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="39">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C81" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="24"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="D81" s="44"/>
+      <c r="E81" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="39">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F82" s="24"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="D82" s="44"/>
+      <c r="E82" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="39">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="24"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="D83" s="44"/>
+      <c r="E83" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="39">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="24"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="D84" s="44"/>
+      <c r="E84" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" s="45"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="39">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C85" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F85" s="24"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="D85" s="44"/>
+      <c r="E85" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" s="45"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="39">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C86" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" s="24"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="D86" s="44"/>
+      <c r="E86" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="39">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C87" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" s="24"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="D87" s="44"/>
+      <c r="E87" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" s="45"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="39">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C88" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F88" s="24"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="D88" s="44"/>
+      <c r="E88" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" s="45"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="39">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B89" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" s="45"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="39">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90" s="45"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="39">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" s="45"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="39">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" s="45"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="39">
+        <f t="shared" ref="A93:A156" si="1">A92+1</f>
+        <v>67</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" s="45"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="39">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="39">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" s="45"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="39">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" s="45"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="39">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97" s="45"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="39">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" s="45"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="39">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F99" s="45"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="39">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="45"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="39">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" s="45"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="39">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" s="45"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="39">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="45"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="39">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="45"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="39">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105" s="45"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="39">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" s="45"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="39">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" s="45"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="39">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" s="45"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="39">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109" s="45"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="39">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" s="45"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="39">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" s="45"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="39">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="45"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="39">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F113" s="45"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="39">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" s="45"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="39">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F115" s="45"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="39">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F116" s="45"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="39">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F117" s="45"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="39">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F118" s="45"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="39">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="C89" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F89" s="24"/>
+      <c r="B119" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F119" s="45"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="39">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B120" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F120" s="45"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="39">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="45"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="39">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F122" s="45"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="39">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F123" s="45"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="39">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F124" s="45"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="39">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F125" s="45"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="39">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F126" s="45"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="39">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" s="45"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="39">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F128" s="45"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="39">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F129" s="45"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="39">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B130" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" s="45"/>
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="39">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" s="45"/>
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="39">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="44"/>
+      <c r="E132" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" s="45"/>
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="39">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F133" s="45"/>
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="39">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F134" s="45"/>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="39">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F135" s="45"/>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="39">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="44"/>
+      <c r="E136" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F136" s="45"/>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="39">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" s="44"/>
+      <c r="E137" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F137" s="45"/>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="39">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" s="44"/>
+      <c r="E138" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F138" s="45"/>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="39">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="44"/>
+      <c r="E139" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="45"/>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="39">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" s="44"/>
+      <c r="E140" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F140" s="45"/>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="39">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="44"/>
+      <c r="E141" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F141" s="45"/>
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="39">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" s="44"/>
+      <c r="E142" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F142" s="45"/>
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="39">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" s="45"/>
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="39">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" s="44"/>
+      <c r="E144" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F144" s="45"/>
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="39">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="44"/>
+      <c r="E145" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F145" s="45"/>
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="39">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F146" s="45"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="39">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F147" s="45"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="39">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F148" s="45"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="39">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F149" s="45"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="39">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F150" s="45"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="39">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B151" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C151" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F151" s="45"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="39">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B152" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F152" s="45"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="39">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B153" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" s="44"/>
+      <c r="E153" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F153" s="45"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="39">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B154" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D154" s="44"/>
+      <c r="E154" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F154" s="45"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="39">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B155" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="44"/>
+      <c r="E155" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F155" s="45"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="39">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B156" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C156" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F156" s="45"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="39">
+        <f t="shared" ref="A157:A220" si="2">A156+1</f>
+        <v>131</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="44"/>
+      <c r="E157" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" s="45"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="39">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B158" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F158" s="45"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="39">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B159" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="44"/>
+      <c r="E159" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F159" s="45"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="39">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B160" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D160" s="44"/>
+      <c r="E160" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F160" s="45"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="39">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D161" s="44"/>
+      <c r="E161" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F161" s="45"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="39">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B162" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="44"/>
+      <c r="E162" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F162" s="45"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="39">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B163" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="44"/>
+      <c r="E163" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F163" s="45"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="39">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B164" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="44"/>
+      <c r="E164" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F164" s="45"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="39">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B165" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="44"/>
+      <c r="E165" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F165" s="45"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="39">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B166" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C166" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F166" s="45"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="39">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="44"/>
+      <c r="E167" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F167" s="45"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="39">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C168" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" s="44"/>
+      <c r="E168" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F168" s="45"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="39">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B169" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" s="44"/>
+      <c r="E169" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F169" s="45"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="39">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B170" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" s="44"/>
+      <c r="E170" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F170" s="45"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="39">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B171" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="44"/>
+      <c r="E171" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F171" s="45"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="39">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B172" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C172" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="44"/>
+      <c r="E172" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F172" s="45"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="39">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B173" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F173" s="45"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="39">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B174" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="44"/>
+      <c r="E174" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F174" s="45"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="39">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B175" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="44"/>
+      <c r="E175" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="45"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="39">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B176" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="44"/>
+      <c r="E176" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F176" s="45"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="39">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B177" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="44"/>
+      <c r="E177" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F177" s="45"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="39">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B178" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C178" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F178" s="45"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="39">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B179" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" s="44"/>
+      <c r="E179" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F179" s="45"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="39">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B180" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" s="44"/>
+      <c r="E180" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F180" s="45"/>
+      <c r="G180"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="39">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B181" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="44"/>
+      <c r="E181" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F181" s="45"/>
+      <c r="G181"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="39">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B182" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F182" s="45"/>
+      <c r="G182"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="39">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B183" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" s="44"/>
+      <c r="E183" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F183" s="45"/>
+      <c r="G183"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="39">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B184" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C184" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" s="44"/>
+      <c r="E184" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F184" s="45"/>
+      <c r="G184"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="39">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B185" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="44"/>
+      <c r="E185" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F185" s="45"/>
+      <c r="G185"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="39">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B186" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C186" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" s="44"/>
+      <c r="E186" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F186" s="45"/>
+      <c r="G186"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="39">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B187" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C187" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187" s="44"/>
+      <c r="E187" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F187" s="45"/>
+      <c r="G187"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="39">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B188" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" s="44"/>
+      <c r="E188" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F188" s="45"/>
+      <c r="G188"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="39">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B189" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C189" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="44"/>
+      <c r="E189" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F189" s="45"/>
+      <c r="G189"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="39">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B190" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="44"/>
+      <c r="E190" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F190" s="45"/>
+      <c r="G190"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="39">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B191" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" s="44"/>
+      <c r="E191" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F191" s="45"/>
+      <c r="G191"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="39">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B192" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" s="44"/>
+      <c r="E192" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F192" s="45"/>
+      <c r="G192"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="39">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B193" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" s="44"/>
+      <c r="E193" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F193" s="45"/>
+      <c r="G193"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="39">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B194" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" s="44"/>
+      <c r="E194" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F194" s="45"/>
+      <c r="G194"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="39">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B195" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C195" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="44"/>
+      <c r="E195" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F195" s="45"/>
+      <c r="G195"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="39">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B196" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" s="44"/>
+      <c r="E196" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F196" s="45"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="39">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B197" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D197" s="44"/>
+      <c r="E197" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F197" s="45"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="39">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B198" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" s="44"/>
+      <c r="E198" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F198" s="45"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="39">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B199" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D199" s="44"/>
+      <c r="E199" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F199" s="45"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="39">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B200" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F200" s="45"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="39">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B201" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C201" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201" s="44"/>
+      <c r="E201" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F201" s="45"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="39">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B202" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D202" s="44"/>
+      <c r="E202" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F202" s="45"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="39">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B203" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C203" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D203" s="44"/>
+      <c r="E203" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F203" s="45"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="39">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B204" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C204" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D204" s="44"/>
+      <c r="E204" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F204" s="45"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="39">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B205" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" s="44"/>
+      <c r="E205" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F205" s="45"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="39">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B206" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="44"/>
+      <c r="E206" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F206" s="45"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="39">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B207" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D207" s="44"/>
+      <c r="E207" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F207" s="45"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="39">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B208" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C208" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D208" s="44"/>
+      <c r="E208" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F208" s="45"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="39">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B209" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D209" s="44"/>
+      <c r="E209" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F209" s="45"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="39">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B210" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" s="44"/>
+      <c r="E210" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F210" s="45"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="39">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B211" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="44"/>
+      <c r="E211" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F211" s="45"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="39">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B212" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" s="44"/>
+      <c r="E212" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F212" s="45"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="39">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B213" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C213" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" s="44"/>
+      <c r="E213" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F213" s="45"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="39">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B214" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="44"/>
+      <c r="E214" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F214" s="45"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="39">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B215" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C215" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D215" s="44"/>
+      <c r="E215" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F215" s="45"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="39">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B216" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C216" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="44"/>
+      <c r="E216" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F216" s="45"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="39">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B217" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="44"/>
+      <c r="E217" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" s="45"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="39">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B218" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218" s="44"/>
+      <c r="E218" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F218" s="45"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="39">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B219" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D219" s="44"/>
+      <c r="E219" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F219" s="45"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="39">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B220" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D220" s="44"/>
+      <c r="E220" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F220" s="45"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="39">
+        <f t="shared" ref="A221:A284" si="3">A220+1</f>
+        <v>195</v>
+      </c>
+      <c r="B221" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" s="44"/>
+      <c r="E221" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F221" s="45"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="39">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B222" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C222" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D222" s="44"/>
+      <c r="E222" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="45"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="39">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B223" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C223" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D223" s="44"/>
+      <c r="E223" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F223" s="45"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="39">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B224" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C224" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D224" s="44"/>
+      <c r="E224" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F224" s="45"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="39">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B225" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D225" s="44"/>
+      <c r="E225" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F225" s="45"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="39">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B226" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C226" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D226" s="44"/>
+      <c r="E226" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F226" s="45"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="39">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B227" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C227" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D227" s="44"/>
+      <c r="E227" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F227" s="45"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="39">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B228" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C228" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D228" s="44"/>
+      <c r="E228" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F228" s="45"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="39">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B229" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C229" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D229" s="47"/>
+      <c r="E229" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F229" s="48"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="39">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B230" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C230" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D230" s="41"/>
+      <c r="E230" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F230" s="42"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="39">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B231" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C231" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D231" s="44"/>
+      <c r="E231" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F231" s="45"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="39">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B232" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C232" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" s="44"/>
+      <c r="E232" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F232" s="45"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="39">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B233" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C233" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D233" s="44"/>
+      <c r="E233" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F233" s="45"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="39">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B234" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C234" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D234" s="44"/>
+      <c r="E234" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F234" s="45"/>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="39">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B235" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D235" s="44"/>
+      <c r="E235" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F235" s="45"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="39">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B236" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D236" s="44"/>
+      <c r="E236" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F236" s="45"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="39">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B237" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C237" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D237" s="44"/>
+      <c r="E237" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F237" s="45"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="39">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B238" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C238" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" s="44"/>
+      <c r="E238" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F238" s="45"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="39">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B239" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D239" s="44"/>
+      <c r="E239" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F239" s="45"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="39">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B240" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C240" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D240" s="44"/>
+      <c r="E240" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F240" s="45"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="39">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B241" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C241" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D241" s="44"/>
+      <c r="E241" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F241" s="45"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="39">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B242" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C242" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D242" s="44"/>
+      <c r="E242" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F242" s="45"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="39">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="B243" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C243" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D243" s="44"/>
+      <c r="E243" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F243" s="45"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="39">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="B244" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C244" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D244" s="44"/>
+      <c r="E244" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F244" s="45"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="39">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="B245" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C245" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D245" s="44"/>
+      <c r="E245" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F245" s="45"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="39">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B246" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C246" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D246" s="44"/>
+      <c r="E246" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F246" s="45"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="39">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B247" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C247" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" s="44"/>
+      <c r="E247" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F247" s="45"/>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="39">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B248" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C248" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D248" s="44"/>
+      <c r="E248" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F248" s="45"/>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="39">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B249" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249" s="44"/>
+      <c r="E249" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F249" s="45"/>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="39">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B250" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C250" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D250" s="44"/>
+      <c r="E250" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F250" s="45"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="39">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B251" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C251" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D251" s="44"/>
+      <c r="E251" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F251" s="45"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="39">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B252" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C252" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252" s="44"/>
+      <c r="E252" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F252" s="45"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="39">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B253" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C253" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D253" s="44"/>
+      <c r="E253" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F253" s="45"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="39">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B254" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C254" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D254" s="44"/>
+      <c r="E254" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F254" s="45"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="39">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B255" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C255" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D255" s="44"/>
+      <c r="E255" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F255" s="45"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="39">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B256" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C256" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D256" s="44"/>
+      <c r="E256" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F256" s="45"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="39">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B257" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C257" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257" s="44"/>
+      <c r="E257" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F257" s="45"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="39">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B258" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C258" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D258" s="44"/>
+      <c r="E258" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F258" s="45"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="39">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B259" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C259" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D259" s="44"/>
+      <c r="E259" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F259" s="45"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="39">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B260" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C260" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="44"/>
+      <c r="E260" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F260" s="45"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="39">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B261" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C261" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D261" s="44"/>
+      <c r="E261" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F261" s="45"/>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="39">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B262" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C262" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D262" s="44"/>
+      <c r="E262" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F262" s="45"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="39">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B263" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C263" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D263" s="44"/>
+      <c r="E263" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F263" s="45"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="39">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="B264" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C264" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" s="44"/>
+      <c r="E264" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F264" s="45"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="39">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="B265" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C265" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265" s="44"/>
+      <c r="E265" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F265" s="45"/>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="39">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="B266" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C266" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D266" s="44"/>
+      <c r="E266" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F266" s="45"/>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="39">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="B267" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C267" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D267" s="44"/>
+      <c r="E267" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F267" s="45"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="39">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B268" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C268" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D268" s="44"/>
+      <c r="E268" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F268" s="45"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="39">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B269" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C269" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D269" s="44"/>
+      <c r="E269" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F269" s="45"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="39">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B270" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C270" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D270" s="44"/>
+      <c r="E270" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F270" s="45"/>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="39">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B271" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C271" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D271" s="44"/>
+      <c r="E271" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F271" s="45"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="39">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="B272" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C272" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D272" s="44"/>
+      <c r="E272" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F272" s="45"/>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="39">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="B273" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C273" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D273" s="44"/>
+      <c r="E273" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F273" s="45"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="39">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="B274" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="C274" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D274" s="44"/>
+      <c r="E274" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F274" s="45"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="39">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="B275" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C275" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275" s="44"/>
+      <c r="E275" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F275" s="45"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="39">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B276" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="C276" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D276" s="44"/>
+      <c r="E276" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F276" s="45"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="39">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B277" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C277" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="44"/>
+      <c r="E277" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F277" s="45"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="39">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B278" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C278" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D278" s="44"/>
+      <c r="E278" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F278" s="45"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="39">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B279" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C279" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="44"/>
+      <c r="E279" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F279" s="45"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="39">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B280" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C280" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280" s="44"/>
+      <c r="E280" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F280" s="45"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="39">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B281" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C281" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281" s="44"/>
+      <c r="E281" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F281" s="45"/>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="39">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="B282" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C282" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D282" s="44"/>
+      <c r="E282" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F282" s="45"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="39">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="B283" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C283" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D283" s="44"/>
+      <c r="E283" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F283" s="45"/>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="39">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="B284" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C284" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="44"/>
+      <c r="E284" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F284" s="45"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="39">
+        <f t="shared" ref="A285:A348" si="4">A284+1</f>
+        <v>259</v>
+      </c>
+      <c r="B285" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C285" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" s="44"/>
+      <c r="E285" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F285" s="45"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="39">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B286" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C286" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" s="44"/>
+      <c r="E286" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F286" s="45"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="39">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B287" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C287" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D287" s="44"/>
+      <c r="E287" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F287" s="45"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="39">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B288" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C288" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D288" s="44"/>
+      <c r="E288" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F288" s="45"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="39">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B289" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="C289" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289" s="44"/>
+      <c r="E289" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F289" s="45"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="39">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B290" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="C290" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290" s="44"/>
+      <c r="E290" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F290" s="45"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="39">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="B291" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C291" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D291" s="44"/>
+      <c r="E291" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F291" s="45"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="39">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="B292" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C292" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D292" s="44"/>
+      <c r="E292" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F292" s="45"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="39">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="B293" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C293" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D293" s="44"/>
+      <c r="E293" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F293" s="45"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="39">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="B294" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="C294" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D294" s="44"/>
+      <c r="E294" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F294" s="45"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="39">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B295" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="C295" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D295" s="44"/>
+      <c r="E295" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F295" s="45"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="39">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B296" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="C296" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D296" s="44"/>
+      <c r="E296" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F296" s="45"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="39">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B297" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C297" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D297" s="44"/>
+      <c r="E297" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F297" s="45"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="39">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B298" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C298" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D298" s="44"/>
+      <c r="E298" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F298" s="45"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="39">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B299" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C299" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D299" s="44"/>
+      <c r="E299" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F299" s="45"/>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="39">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B300" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C300" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D300" s="44"/>
+      <c r="E300" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F300" s="45"/>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="39">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B301" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C301" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D301" s="44"/>
+      <c r="E301" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F301" s="45"/>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="39">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B302" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="C302" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D302" s="44"/>
+      <c r="E302" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F302" s="45"/>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="39">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B303" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="C303" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" s="44"/>
+      <c r="E303" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F303" s="45"/>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="39">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B304" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C304" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D304" s="44"/>
+      <c r="E304" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F304" s="45"/>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="39">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B305" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="C305" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D305" s="44"/>
+      <c r="E305" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F305" s="45"/>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="39">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B306" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="C306" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D306" s="44"/>
+      <c r="E306" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F306" s="45"/>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="39">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B307" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C307" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D307" s="44"/>
+      <c r="E307" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F307" s="45"/>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="39">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B308" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C308" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D308" s="44"/>
+      <c r="E308" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F308" s="45"/>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="39">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B309" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C309" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D309" s="44"/>
+      <c r="E309" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F309" s="45"/>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="39">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B310" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C310" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D310" s="44"/>
+      <c r="E310" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F310" s="45"/>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="39">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B311" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C311" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D311" s="44"/>
+      <c r="E311" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F311" s="45"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="39">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B312" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C312" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D312" s="44"/>
+      <c r="E312" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F312" s="45"/>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="39">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B313" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C313" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D313" s="44"/>
+      <c r="E313" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F313" s="45"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="39">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B314" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C314" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D314" s="44"/>
+      <c r="E314" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F314" s="45"/>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="39">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B315" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C315" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315" s="44"/>
+      <c r="E315" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F315" s="45"/>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="39">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B316" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="C316" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D316" s="44"/>
+      <c r="E316" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F316" s="45"/>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="39">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B317" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C317" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D317" s="44"/>
+      <c r="E317" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F317" s="45"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="39">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="B318" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C318" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D318" s="44"/>
+      <c r="E318" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F318" s="45"/>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="39">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B319" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C319" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D319" s="44"/>
+      <c r="E319" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F319" s="45"/>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="39">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B320" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C320" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D320" s="44"/>
+      <c r="E320" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F320" s="45"/>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="39">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="B321" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C321" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D321" s="44"/>
+      <c r="E321" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F321" s="45"/>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="39">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="B322" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="C322" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D322" s="44"/>
+      <c r="E322" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F322" s="45"/>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="39">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B323" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C323" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D323" s="44"/>
+      <c r="E323" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F323" s="45"/>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="39">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="B324" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D324" s="44"/>
+      <c r="E324" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F324" s="45"/>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="39">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="B325" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="C325" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D325" s="44"/>
+      <c r="E325" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F325" s="45"/>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="39">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B326" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C326" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D326" s="44"/>
+      <c r="E326" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F326" s="45"/>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="39">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="B327" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C327" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D327" s="44"/>
+      <c r="E327" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F327" s="45"/>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="39">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="B328" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C328" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D328" s="44"/>
+      <c r="E328" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F328" s="45"/>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="39">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="B329" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C329" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D329" s="44"/>
+      <c r="E329" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F329" s="45"/>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="39">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="B330" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C330" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D330" s="44"/>
+      <c r="E330" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F330" s="45"/>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="39">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="B331" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C331" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D331" s="44"/>
+      <c r="E331" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F331" s="45"/>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="39">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="B332" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="C332" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D332" s="44"/>
+      <c r="E332" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F332" s="45"/>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="39">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="B333" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="C333" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D333" s="44"/>
+      <c r="E333" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F333" s="45"/>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="39">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="B334" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="C334" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D334" s="44"/>
+      <c r="E334" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F334" s="45"/>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="39">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="B335" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C335" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D335" s="44"/>
+      <c r="E335" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F335" s="45"/>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="39">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B336" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C336" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D336" s="44"/>
+      <c r="E336" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F336" s="45"/>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="39">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="B337" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="C337" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D337" s="44"/>
+      <c r="E337" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F337" s="45"/>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="39">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="B338" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="C338" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D338" s="44"/>
+      <c r="E338" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F338" s="45"/>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="39">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="B339" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C339" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D339" s="44"/>
+      <c r="E339" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F339" s="45"/>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="39">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="B340" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C340" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D340" s="44"/>
+      <c r="E340" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F340" s="45"/>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="39">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="B341" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="C341" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D341" s="44"/>
+      <c r="E341" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F341" s="45"/>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="39">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="B342" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="C342" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D342" s="44"/>
+      <c r="E342" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F342" s="45"/>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="39">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+      <c r="B343" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="C343" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D343" s="44"/>
+      <c r="E343" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F343" s="45"/>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="39">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+      <c r="B344" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="C344" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D344" s="44"/>
+      <c r="E344" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F344" s="45"/>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="39">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="B345" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="C345" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D345" s="44"/>
+      <c r="E345" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F345" s="45"/>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="39">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B346" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="C346" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D346" s="44"/>
+      <c r="E346" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F346" s="45"/>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="39">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="B347" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C347" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D347" s="44"/>
+      <c r="E347" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F347" s="45"/>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="39">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="B348" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="C348" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D348" s="44"/>
+      <c r="E348" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F348" s="45"/>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="39">
+        <f t="shared" ref="A349:A412" si="5">A348+1</f>
+        <v>323</v>
+      </c>
+      <c r="B349" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C349" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D349" s="44"/>
+      <c r="E349" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F349" s="45"/>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="39">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="B350" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="C350" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D350" s="44"/>
+      <c r="E350" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F350" s="45"/>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="39">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="B351" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C351" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D351" s="44"/>
+      <c r="E351" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F351" s="45"/>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="39">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="B352" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C352" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D352" s="44"/>
+      <c r="E352" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F352" s="45"/>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="39">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="B353" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C353" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D353" s="44"/>
+      <c r="E353" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F353" s="45"/>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="39">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B354" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="C354" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D354" s="44"/>
+      <c r="E354" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F354" s="45"/>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="39">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="B355" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="C355" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D355" s="44"/>
+      <c r="E355" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F355" s="45"/>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="39">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B356" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C356" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D356" s="44"/>
+      <c r="E356" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F356" s="45"/>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="39">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="B357" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C357" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357" s="44"/>
+      <c r="E357" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F357" s="45"/>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="39">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B358" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C358" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D358" s="44"/>
+      <c r="E358" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F358" s="45"/>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="39">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="B359" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C359" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D359" s="44"/>
+      <c r="E359" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F359" s="45"/>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="39">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B360" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="C360" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D360" s="44"/>
+      <c r="E360" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F360" s="45"/>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="39">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="B361" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C361" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D361" s="44"/>
+      <c r="E361" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F361" s="45"/>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="39">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="B362" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C362" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D362" s="44"/>
+      <c r="E362" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F362" s="45"/>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="39">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="B363" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C363" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D363" s="44"/>
+      <c r="E363" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F363" s="45"/>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="39">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="B364" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="C364" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D364" s="44"/>
+      <c r="E364" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F364" s="45"/>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="39">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+      <c r="B365" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C365" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D365" s="44"/>
+      <c r="E365" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F365" s="45"/>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="39">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B366" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="C366" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D366" s="44"/>
+      <c r="E366" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F366" s="45"/>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="39">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="B367" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="C367" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D367" s="44"/>
+      <c r="E367" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F367" s="45"/>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="39">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B368" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="C368" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D368" s="44"/>
+      <c r="E368" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F368" s="45"/>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="39">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B369" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="C369" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D369" s="44"/>
+      <c r="E369" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F369" s="45"/>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="39">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B370" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C370" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D370" s="44"/>
+      <c r="E370" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F370" s="45"/>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="39">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+      <c r="B371" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="C371" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D371" s="44"/>
+      <c r="E371" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F371" s="45"/>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="39">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="B372" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C372" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D372" s="44"/>
+      <c r="E372" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F372" s="45"/>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="39">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="B373" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C373" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D373" s="44"/>
+      <c r="E373" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F373" s="45"/>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="39">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="B374" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="C374" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D374" s="44"/>
+      <c r="E374" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F374" s="45"/>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="39">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="B375" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="C375" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D375" s="44"/>
+      <c r="E375" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F375" s="45"/>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="39">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B376" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C376" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D376" s="44"/>
+      <c r="E376" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F376" s="45"/>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="39">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="B377" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="C377" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D377" s="44"/>
+      <c r="E377" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F377" s="45"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="39">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="B378" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="C378" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D378" s="44"/>
+      <c r="E378" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F378" s="45"/>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="39">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="B379" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="C379" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D379" s="44"/>
+      <c r="E379" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F379" s="45"/>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="39">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="B380" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C380" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" s="44"/>
+      <c r="E380" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F380" s="45"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="39">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="B381" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C381" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381" s="44"/>
+      <c r="E381" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F381" s="45"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="39">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+      <c r="B382" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C382" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D382" s="44"/>
+      <c r="E382" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F382" s="45"/>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="39">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="B383" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C383" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D383" s="44"/>
+      <c r="E383" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F383" s="45"/>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="39">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="B384" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="C384" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D384" s="44"/>
+      <c r="E384" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F384" s="45"/>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="39">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="B385" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="C385" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385" s="44"/>
+      <c r="E385" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F385" s="45"/>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="39">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B386" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="C386" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D386" s="44"/>
+      <c r="E386" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F386" s="45"/>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="39">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="B387" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C387" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D387" s="44"/>
+      <c r="E387" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F387" s="45"/>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="39">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B388" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C388" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D388" s="44"/>
+      <c r="E388" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F388" s="45"/>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="39">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="B389" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C389" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D389" s="44"/>
+      <c r="E389" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F389" s="45"/>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="39">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="B390" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C390" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D390" s="44"/>
+      <c r="E390" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F390" s="45"/>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="39">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="B391" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="C391" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D391" s="44"/>
+      <c r="E391" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F391" s="45"/>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="39">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="B392" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C392" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D392" s="44"/>
+      <c r="E392" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F392" s="45"/>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="39">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="B393" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C393" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D393" s="44"/>
+      <c r="E393" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F393" s="45"/>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="39">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="B394" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C394" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D394" s="44"/>
+      <c r="E394" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F394" s="45"/>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="39">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+      <c r="B395" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="C395" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D395" s="44"/>
+      <c r="E395" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F395" s="45"/>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="39">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B396" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C396" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D396" s="44"/>
+      <c r="E396" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F396" s="45"/>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="39">
+        <f t="shared" si="5"/>
+        <v>371</v>
+      </c>
+      <c r="B397" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="C397" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D397" s="44"/>
+      <c r="E397" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F397" s="45"/>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="39">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="B398" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="C398" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D398" s="44"/>
+      <c r="E398" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F398" s="45"/>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="39">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="B399" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C399" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D399" s="44"/>
+      <c r="E399" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F399" s="45"/>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="39">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="B400" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C400" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D400" s="44"/>
+      <c r="E400" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F400" s="45"/>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="39">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="B401" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="C401" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D401" s="44"/>
+      <c r="E401" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F401" s="45"/>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="39">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="B402" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="C402" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D402" s="44"/>
+      <c r="E402" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F402" s="45"/>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="39">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="B403" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C403" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D403" s="44"/>
+      <c r="E403" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F403" s="45"/>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="39">
+        <f t="shared" si="5"/>
+        <v>378</v>
+      </c>
+      <c r="B404" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C404" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D404" s="44"/>
+      <c r="E404" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F404" s="45"/>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="39">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="B405" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="C405" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D405" s="44"/>
+      <c r="E405" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F405" s="45"/>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="39">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B406" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C406" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D406" s="44"/>
+      <c r="E406" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F406" s="45"/>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="39">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="B407" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C407" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D407" s="44"/>
+      <c r="E407" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F407" s="45"/>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="39">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="B408" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C408" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D408" s="44"/>
+      <c r="E408" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F408" s="45"/>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="39">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="B409" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="C409" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D409" s="44"/>
+      <c r="E409" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F409" s="45"/>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="39">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="B410" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="C410" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D410" s="44"/>
+      <c r="E410" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F410" s="45"/>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="39">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
+      <c r="B411" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="C411" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D411" s="44"/>
+      <c r="E411" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F411" s="45"/>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="39">
+        <f t="shared" si="5"/>
+        <v>386</v>
+      </c>
+      <c r="B412" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C412" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D412" s="44"/>
+      <c r="E412" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F412" s="45"/>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="39">
+        <f t="shared" ref="A413:A429" si="6">A412+1</f>
+        <v>387</v>
+      </c>
+      <c r="B413" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="C413" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D413" s="44"/>
+      <c r="E413" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F413" s="45"/>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="39">
+        <f t="shared" si="6"/>
+        <v>388</v>
+      </c>
+      <c r="B414" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="C414" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D414" s="44"/>
+      <c r="E414" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F414" s="45"/>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="39">
+        <f t="shared" si="6"/>
+        <v>389</v>
+      </c>
+      <c r="B415" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C415" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D415" s="44"/>
+      <c r="E415" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F415" s="45"/>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="39">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="B416" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="C416" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D416" s="44"/>
+      <c r="E416" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F416" s="45"/>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="39">
+        <f t="shared" si="6"/>
+        <v>391</v>
+      </c>
+      <c r="B417" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C417" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D417" s="44"/>
+      <c r="E417" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F417" s="45"/>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="39">
+        <f t="shared" si="6"/>
+        <v>392</v>
+      </c>
+      <c r="B418" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="C418" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D418" s="44"/>
+      <c r="E418" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F418" s="45"/>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="39">
+        <f t="shared" si="6"/>
+        <v>393</v>
+      </c>
+      <c r="B419" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C419" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D419" s="44"/>
+      <c r="E419" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F419" s="45"/>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="39">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+      <c r="B420" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="C420" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D420" s="44"/>
+      <c r="E420" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F420" s="45"/>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="39">
+        <f t="shared" si="6"/>
+        <v>395</v>
+      </c>
+      <c r="B421" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C421" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D421" s="44"/>
+      <c r="E421" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F421" s="45"/>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="39">
+        <f t="shared" si="6"/>
+        <v>396</v>
+      </c>
+      <c r="B422" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C422" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D422" s="44"/>
+      <c r="E422" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F422" s="45"/>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="39">
+        <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="B423" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="C423" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D423" s="44"/>
+      <c r="E423" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F423" s="45"/>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="39">
+        <f t="shared" si="6"/>
+        <v>398</v>
+      </c>
+      <c r="B424" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="C424" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D424" s="44"/>
+      <c r="E424" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F424" s="45"/>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="39">
+        <f t="shared" si="6"/>
+        <v>399</v>
+      </c>
+      <c r="B425" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="C425" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D425" s="44"/>
+      <c r="E425" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F425" s="45"/>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="39">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="B426" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C426" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D426" s="44"/>
+      <c r="E426" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F426" s="45"/>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="39">
+        <f t="shared" si="6"/>
+        <v>401</v>
+      </c>
+      <c r="B427" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="C427" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D427" s="44"/>
+      <c r="E427" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F427" s="45"/>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="39">
+        <f t="shared" si="6"/>
+        <v>402</v>
+      </c>
+      <c r="B428" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C428" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D428" s="44"/>
+      <c r="E428" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F428" s="45"/>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="39">
+        <f t="shared" si="6"/>
+        <v>403</v>
+      </c>
+      <c r="B429" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C429" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D429" s="23"/>
+      <c r="E429" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F429" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2738,7 +9693,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D58" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D58 D68 D78 D108 D118 D128 D158 D168 D178 D208 D218 D228" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
